--- a/pictures_news/renminribao.xlsx
+++ b/pictures_news/renminribao.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8520"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="sheet1" state="visible" r:id="rId4"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="771">
   <si>
     <t>标题</t>
   </si>
@@ -106,30 +109,6 @@
     <t>合作</t>
   </si>
   <si>
-    <t>他乡的“故知”（书写新中国故事）</t>
-  </si>
-  <si>
-    <t>http://data.people.com.cn/rmrb/pd.html?qs=%7B%22cds%22%3A%5B%7B%22cdr%22%3A%22AND%22%2C%22cds%22%3A%5B%7B%22fld%22%3A%22title%22%2C%22cdr%22%3A%22OR%22%2C%22hlt%22%3A%22true%22%2C%22vlr%22%3A%22OR%22%2C%22val%22%3A%22%E4%BF%AE%E6%98%94%E5%BA%95%E5%BE%B7%22%7D%2C%7B%22fld%22%3A%22subTitle%22%2C%22cdr%22%3A%22OR%22%2C%22hlt%22%3A%22true%22%2C%22vlr%22%3A%22OR%22%2C%22val%22%3A%22%E4%BF%AE%E6%98%94%E5%BA%95%E5%BE%B7%22%7D%2C%7B%22fld%22%3A%22introTitle%22%2C%22cdr%22%3A%22OR%22%2C%22hlt%22%3A%22true%22%2C%22vlr%22%3A%22OR%22%2C%22val%22%3A%22%E4%BF%AE%E6%98%94%E5%BA%95%E5%BE%B7%22%7D%2C%7B%22fld%22%3A%22contentText%22%2C%22cdr%22%3A%22OR%22%2C%22hlt%22%3A%22true%22%2C%22vlr%22%3A%22OR%22%2C%22val%22%3A%22%E4%BF%AE%E6%98%94%E5%BA%95%E5%BE%B7%22%7D%5D%7D%5D%2C%22obs%22%3A%5B%7B%22fld%22%3A%22dataTime%22%2C%22drt%22%3A%22DESC%22%7D%5D%7D&amp;tr=A&amp;pageNo=1&amp;pageSize=50&amp;position=3</t>
-  </si>
-  <si>
-    <t>2020年3月15日第7版  
-												【浏览本版】</t>
-  </si>
-  <si>
-    <t>翻译，让其中最著名、最有影响的篇章以浅显易懂的形式呈现出来。“这样，英语读者就能像阅读希罗多德、修昔底德、波利比奥斯和李维等历史学家们的作品那样，读这些中国典籍了。”沃森说。　　沃森把一生中大部分时间</t>
-  </si>
-  <si>
-    <t>伯顿·沃森
-																	英语
-																	故事</t>
-  </si>
-  <si>
-    <t>英语</t>
-  </si>
-  <si>
-    <t>故事</t>
-  </si>
-  <si>
     <t>中美应加强战略协调</t>
   </si>
   <si>
@@ -2586,30 +2565,6 @@
     <t>再度交汇</t>
   </si>
   <si>
-    <t>史学的时代精神（学者论坛）</t>
-  </si>
-  <si>
-    <t>http://data.people.com.cn/rmrb/pd.html?qs=%7B%22cds%22%3A%5B%7B%22cdr%22%3A%22AND%22%2C%22cds%22%3A%5B%7B%22fld%22%3A%22title%22%2C%22cdr%22%3A%22OR%22%2C%22hlt%22%3A%22true%22%2C%22vlr%22%3A%22OR%22%2C%22val%22%3A%22%E4%BF%AE%E6%98%94%E5%BA%95%E5%BE%B7%22%7D%2C%7B%22fld%22%3A%22subTitle%22%2C%22cdr%22%3A%22OR%22%2C%22hlt%22%3A%22true%22%2C%22vlr%22%3A%22OR%22%2C%22val%22%3A%22%E4%BF%AE%E6%98%94%E5%BA%95%E5%BE%B7%22%7D%2C%7B%22fld%22%3A%22introTitle%22%2C%22cdr%22%3A%22OR%22%2C%22hlt%22%3A%22true%22%2C%22vlr%22%3A%22OR%22%2C%22val%22%3A%22%E4%BF%AE%E6%98%94%E5%BA%95%E5%BE%B7%22%7D%2C%7B%22fld%22%3A%22contentText%22%2C%22cdr%22%3A%22OR%22%2C%22hlt%22%3A%22true%22%2C%22vlr%22%3A%22OR%22%2C%22val%22%3A%22%E4%BF%AE%E6%98%94%E5%BA%95%E5%BE%B7%22%7D%5D%7D%5D%2C%22obs%22%3A%5B%7B%22fld%22%3A%22dataTime%22%2C%22drt%22%3A%22DESC%22%7D%5D%7D&amp;tr=A&amp;pageNo=3&amp;pageSize=50&amp;position=35</t>
-  </si>
-  <si>
-    <t>2014年3月7日第7版  
-												【浏览本版】</t>
-  </si>
-  <si>
-    <t>替”等，成为我国历代史家的共识。　　在古代希腊、罗马，史家修史的目的主要也是为了喻今，垂训后世。修昔底德强调：“擎起历史的火炬，引导人类在摸索中的脚步”。戴奥尼西认为：“历史是一种以事实为训的哲学”。</t>
-  </si>
-  <si>
-    <t>时代精神
-																	历史研究
-																	革命</t>
-  </si>
-  <si>
-    <t>历史研究</t>
-  </si>
-  <si>
-    <t>革命</t>
-  </si>
-  <si>
     <t>未来掌握在我们自己手中（域外听风）</t>
   </si>
   <si>
@@ -2701,45 +2656,6 @@
 																	对话</t>
   </si>
   <si>
-    <t>开创大国关系新模式的政治智慧和历史担当</t>
-  </si>
-  <si>
-    <t>http://data.people.com.cn/rmrb/pd.html?qs=%7B%22cds%22%3A%5B%7B%22cdr%22%3A%22AND%22%2C%22cds%22%3A%5B%7B%22fld%22%3A%22title%22%2C%22cdr%22%3A%22OR%22%2C%22hlt%22%3A%22true%22%2C%22vlr%22%3A%22OR%22%2C%22val%22%3A%22%E4%BF%AE%E6%98%94%E5%BA%95%E5%BE%B7%22%7D%2C%7B%22fld%22%3A%22subTitle%22%2C%22cdr%22%3A%22OR%22%2C%22hlt%22%3A%22true%22%2C%22vlr%22%3A%22OR%22%2C%22val%22%3A%22%E4%BF%AE%E6%98%94%E5%BA%95%E5%BE%B7%22%7D%2C%7B%22fld%22%3A%22introTitle%22%2C%22cdr%22%3A%22OR%22%2C%22hlt%22%3A%22true%22%2C%22vlr%22%3A%22OR%22%2C%22val%22%3A%22%E4%BF%AE%E6%98%94%E5%BA%95%E5%BE%B7%22%7D%2C%7B%22fld%22%3A%22contentText%22%2C%22cdr%22%3A%22OR%22%2C%22hlt%22%3A%22true%22%2C%22vlr%22%3A%22OR%22%2C%22val%22%3A%22%E4%BF%AE%E6%98%94%E5%BA%95%E5%BE%B7%22%7D%5D%7D%5D%2C%22obs%22%3A%5B%7B%22fld%22%3A%22dataTime%22%2C%22drt%22%3A%22DESC%22%7D%5D%7D&amp;tr=A&amp;pageNo=3&amp;pageSize=50&amp;position=41</t>
-  </si>
-  <si>
-    <t>2013年6月10日第2版  
-												【浏览本版】</t>
-  </si>
-  <si>
-    <t>还以丰富的想象力描绘中美未来爆发战争的场景。　　新兴力量崛起往往会带来不安与焦虑。古希腊历史学家修昔底德曾言，雅典和斯巴达之间的战争不可避免，是因为雅典实力的增长及其在斯巴达所引起的恐惧。　　美国哈佛</t>
-  </si>
-  <si>
-    <t>历史
-																	中美关系
-																	大国关系</t>
-  </si>
-  <si>
-    <t>平等互信 包容互鉴 合作共赢（权威论坛）</t>
-  </si>
-  <si>
-    <t>http://data.people.com.cn/rmrb/pd.html?qs=%7B%22cds%22%3A%5B%7B%22cdr%22%3A%22AND%22%2C%22cds%22%3A%5B%7B%22fld%22%3A%22title%22%2C%22cdr%22%3A%22OR%22%2C%22hlt%22%3A%22true%22%2C%22vlr%22%3A%22OR%22%2C%22val%22%3A%22%E4%BF%AE%E6%98%94%E5%BA%95%E5%BE%B7%22%7D%2C%7B%22fld%22%3A%22subTitle%22%2C%22cdr%22%3A%22OR%22%2C%22hlt%22%3A%22true%22%2C%22vlr%22%3A%22OR%22%2C%22val%22%3A%22%E4%BF%AE%E6%98%94%E5%BA%95%E5%BE%B7%22%7D%2C%7B%22fld%22%3A%22introTitle%22%2C%22cdr%22%3A%22OR%22%2C%22hlt%22%3A%22true%22%2C%22vlr%22%3A%22OR%22%2C%22val%22%3A%22%E4%BF%AE%E6%98%94%E5%BA%95%E5%BE%B7%22%7D%2C%7B%22fld%22%3A%22contentText%22%2C%22cdr%22%3A%22OR%22%2C%22hlt%22%3A%22true%22%2C%22vlr%22%3A%22OR%22%2C%22val%22%3A%22%E4%BF%AE%E6%98%94%E5%BA%95%E5%BE%B7%22%7D%5D%7D%5D%2C%22obs%22%3A%5B%7B%22fld%22%3A%22dataTime%22%2C%22drt%22%3A%22DESC%22%7D%5D%7D&amp;tr=A&amp;pageNo=3&amp;pageSize=50&amp;position=42</t>
-  </si>
-  <si>
-    <t>2012年12月28日第23版  
-												【浏览本版】</t>
-  </si>
-  <si>
-    <t>种敌友明确、结盟对抗、零和博弈、追求霸权的关系。基于此，近代以来世界大国的交替就是一部战争史。从修昔底德记载的伯罗奔尼撒战争开始，西方国际关系史上的每一轮大国崛起，几乎都引致“上升国”与“守成国”之间</t>
-  </si>
-  <si>
-    <t>合作
-																	和平发展
-																	国际</t>
-  </si>
-  <si>
-    <t>和平发展</t>
-  </si>
-  <si>
     <t>在世界舞台彰显“责任大国”（畅怀）</t>
   </si>
   <si>
@@ -2780,91 +2696,19 @@
   </si>
   <si>
     <t>诚心实意</t>
-  </si>
-  <si>
-    <t>《政治哲学史》简介</t>
-  </si>
-  <si>
-    <t>http://data.people.com.cn/rmrb/pd.html?qs=%7B%22cds%22%3A%5B%7B%22cdr%22%3A%22AND%22%2C%22cds%22%3A%5B%7B%22fld%22%3A%22title%22%2C%22cdr%22%3A%22OR%22%2C%22hlt%22%3A%22true%22%2C%22vlr%22%3A%22OR%22%2C%22val%22%3A%22%E4%BF%AE%E6%98%94%E5%BA%95%E5%BE%B7%22%7D%2C%7B%22fld%22%3A%22subTitle%22%2C%22cdr%22%3A%22OR%22%2C%22hlt%22%3A%22true%22%2C%22vlr%22%3A%22OR%22%2C%22val%22%3A%22%E4%BF%AE%E6%98%94%E5%BA%95%E5%BE%B7%22%7D%2C%7B%22fld%22%3A%22introTitle%22%2C%22cdr%22%3A%22OR%22%2C%22hlt%22%3A%22true%22%2C%22vlr%22%3A%22OR%22%2C%22val%22%3A%22%E4%BF%AE%E6%98%94%E5%BA%95%E5%BE%B7%22%7D%2C%7B%22fld%22%3A%22contentText%22%2C%22cdr%22%3A%22OR%22%2C%22hlt%22%3A%22true%22%2C%22vlr%22%3A%22OR%22%2C%22val%22%3A%22%E4%BF%AE%E6%98%94%E5%BA%95%E5%BE%B7%22%7D%5D%7D%5D%2C%22obs%22%3A%5B%7B%22fld%22%3A%22dataTime%22%2C%22drt%22%3A%22DESC%22%7D%5D%7D&amp;tr=A&amp;pageNo=3&amp;pageSize=50&amp;position=45</t>
-  </si>
-  <si>
-    <t>1994年11月2日第5版  
-												【浏览本版】</t>
-  </si>
-  <si>
-    <t>３）主持编撰的《政治哲学史》最近已由河北人民出版社首次出版中译本。这部学术著作比较系统地阐述了从修昔底德、苏格拉底直至胡塞尔、海德格尔等西方古今著名思想家和学者对社会政治生活的理性思考。这些思考集中反</t>
-  </si>
-  <si>
-    <t>《政治哲学史》
-																	政治生活
-																	简介</t>
-  </si>
-  <si>
-    <t>政治生活</t>
-  </si>
-  <si>
-    <t>简介</t>
-  </si>
-  <si>
-    <t>雅典——希腊文化的摇篮</t>
-  </si>
-  <si>
-    <t>http://data.people.com.cn/rmrb/pd.html?qs=%7B%22cds%22%3A%5B%7B%22cdr%22%3A%22AND%22%2C%22cds%22%3A%5B%7B%22fld%22%3A%22title%22%2C%22cdr%22%3A%22OR%22%2C%22hlt%22%3A%22true%22%2C%22vlr%22%3A%22OR%22%2C%22val%22%3A%22%E4%BF%AE%E6%98%94%E5%BA%95%E5%BE%B7%22%7D%2C%7B%22fld%22%3A%22subTitle%22%2C%22cdr%22%3A%22OR%22%2C%22hlt%22%3A%22true%22%2C%22vlr%22%3A%22OR%22%2C%22val%22%3A%22%E4%BF%AE%E6%98%94%E5%BA%95%E5%BE%B7%22%7D%2C%7B%22fld%22%3A%22introTitle%22%2C%22cdr%22%3A%22OR%22%2C%22hlt%22%3A%22true%22%2C%22vlr%22%3A%22OR%22%2C%22val%22%3A%22%E4%BF%AE%E6%98%94%E5%BA%95%E5%BE%B7%22%7D%2C%7B%22fld%22%3A%22contentText%22%2C%22cdr%22%3A%22OR%22%2C%22hlt%22%3A%22true%22%2C%22vlr%22%3A%22OR%22%2C%22val%22%3A%22%E4%BF%AE%E6%98%94%E5%BA%95%E5%BE%B7%22%7D%5D%7D%5D%2C%22obs%22%3A%5B%7B%22fld%22%3A%22dataTime%22%2C%22drt%22%3A%22DESC%22%7D%5D%7D&amp;tr=A&amp;pageNo=3&amp;pageSize=50&amp;position=46</t>
-  </si>
-  <si>
-    <t>1979年11月12日第5版  
-												【浏览本版】</t>
-  </si>
-  <si>
-    <t>大文豪，如大悲剧作家爱斯奇里斯、索福克利斯和幼里披底斯，大喜剧作家阿里斯托芬，历史学家希罗多德和修昔底德，雕塑家菲迪亚斯，哲学家苏格拉底、柏拉图和亚里士多德等都在这里诞生或居住，从事创作或讲学。　　希</t>
-  </si>
-  <si>
-    <t>希腊文化
-																	比雷埃夫斯
-																	人口</t>
-  </si>
-  <si>
-    <t>比雷埃夫斯</t>
-  </si>
-  <si>
-    <t>人口</t>
-  </si>
-  <si>
-    <t>商务印书馆等有关出版社　    翻译出版外国哲学社会科学著作</t>
-  </si>
-  <si>
-    <t>http://data.people.com.cn/rmrb/pd.html?qs=%7B%22cds%22%3A%5B%7B%22cdr%22%3A%22AND%22%2C%22cds%22%3A%5B%7B%22fld%22%3A%22title%22%2C%22cdr%22%3A%22OR%22%2C%22hlt%22%3A%22true%22%2C%22vlr%22%3A%22OR%22%2C%22val%22%3A%22%E4%BF%AE%E6%98%94%E5%BA%95%E5%BE%B7%22%7D%2C%7B%22fld%22%3A%22subTitle%22%2C%22cdr%22%3A%22OR%22%2C%22hlt%22%3A%22true%22%2C%22vlr%22%3A%22OR%22%2C%22val%22%3A%22%E4%BF%AE%E6%98%94%E5%BA%95%E5%BE%B7%22%7D%2C%7B%22fld%22%3A%22introTitle%22%2C%22cdr%22%3A%22OR%22%2C%22hlt%22%3A%22true%22%2C%22vlr%22%3A%22OR%22%2C%22val%22%3A%22%E4%BF%AE%E6%98%94%E5%BA%95%E5%BE%B7%22%7D%2C%7B%22fld%22%3A%22contentText%22%2C%22cdr%22%3A%22OR%22%2C%22hlt%22%3A%22true%22%2C%22vlr%22%3A%22OR%22%2C%22val%22%3A%22%E4%BF%AE%E6%98%94%E5%BA%95%E5%BE%B7%22%7D%5D%7D%5D%2C%22obs%22%3A%5B%7B%22fld%22%3A%22dataTime%22%2C%22drt%22%3A%22DESC%22%7D%5D%7D&amp;tr=A&amp;pageNo=3&amp;pageSize=50&amp;position=47</t>
-  </si>
-  <si>
-    <t>1961年7月6日第7版  
-												【浏览本版】</t>
-  </si>
-  <si>
-    <t>》，狄骥的《宪法论》（第一卷）。历史、传记方面，主要的有：希罗多德的《历史（希腊波斯战争史）》，修昔底德的《伯罗奔尼撒战争史》，《巴黎公社会议记录》（第一卷），塔尔列的《拿破仑传》，约安尼相的《傅立叶</t>
-  </si>
-  <si>
-    <t>哲学
-																	著作
-																	出版</t>
-  </si>
-  <si>
-    <t>著作</t>
-  </si>
-  <si>
-    <t>出版</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts x14ac:knownFonts="1" count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2891,7 +2735,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2907,7 +2751,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2917,44 +2761,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -2984,12 +2828,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -3028,209 +2872,156 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <dimension ref="A1:G142"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3253,7 +3044,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3276,7 +3067,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -3299,7 +3090,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -3322,7 +3113,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -3342,56 +3133,56 @@
         <v>33</v>
       </c>
       <c r="G5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>37</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>38</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>39</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>40</v>
       </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>41</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>42</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>43</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>44</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>45</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>46</v>
       </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -3414,7 +3205,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -3437,122 +3228,122 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
         <v>61</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>62</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
         <v>63</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C11" t="s">
         <v>64</v>
       </c>
-      <c r="E10" t="s">
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>65</v>
       </c>
-      <c r="F10" t="s">
+      <c r="B12" t="s">
         <v>66</v>
       </c>
-      <c r="G10" t="s">
+      <c r="C12" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="D12" t="s">
         <v>68</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E12" t="s">
         <v>69</v>
       </c>
-      <c r="D11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>65</v>
       </c>
-      <c r="F11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" t="s">
         <v>70</v>
       </c>
-      <c r="C12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>73</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
         <v>74</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>75</v>
       </c>
-      <c r="E13" t="s">
+      <c r="D14" t="s">
         <v>76</v>
       </c>
-      <c r="F13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="E14" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="F14" t="s">
         <v>78</v>
       </c>
-      <c r="C14" t="s">
+      <c r="G14" t="s">
         <v>79</v>
       </c>
-      <c r="D14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>80</v>
       </c>
@@ -3575,7 +3366,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>87</v>
       </c>
@@ -3592,44 +3383,44 @@
         <v>91</v>
       </c>
       <c r="F16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" t="s">
         <v>92</v>
       </c>
-      <c r="G16" t="s">
+      <c r="C17" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" t="s">
-        <v>96</v>
-      </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F17" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>94</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D18" t="s">
         <v>97</v>
@@ -3638,128 +3429,128 @@
         <v>98</v>
       </c>
       <c r="F18" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="G18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" t="s">
         <v>101</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>102</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>103</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>104</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>105</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>106</v>
       </c>
-      <c r="G19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>107</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>108</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>109</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>110</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" t="s">
         <v>111</v>
       </c>
-      <c r="F20" t="s">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>112</v>
       </c>
-      <c r="G20" t="s">
+      <c r="B21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>113</v>
-      </c>
-      <c r="B21" t="s">
-        <v>114</v>
-      </c>
-      <c r="C21" t="s">
-        <v>115</v>
-      </c>
-      <c r="D21" t="s">
-        <v>116</v>
-      </c>
-      <c r="E21" t="s">
-        <v>117</v>
-      </c>
-      <c r="F21" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
         <v>119</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>120</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>121</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>122</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>123</v>
-      </c>
-      <c r="F22" t="s">
-        <v>124</v>
       </c>
       <c r="G22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" t="s">
         <v>125</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>126</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>127</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>128</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>129</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>130</v>
       </c>
-      <c r="G23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>131</v>
       </c>
@@ -3782,7 +3573,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>138</v>
       </c>
@@ -3799,113 +3590,113 @@
         <v>142</v>
       </c>
       <c r="F25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G25" t="s">
         <v>143</v>
       </c>
-      <c r="G25" t="s">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
         <v>145</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>146</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>147</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>148</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" t="s">
         <v>149</v>
       </c>
-      <c r="F26" t="s">
-        <v>143</v>
-      </c>
-      <c r="G26" t="s">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
         <v>151</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27" t="s">
         <v>152</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E27" t="s">
         <v>153</v>
       </c>
-      <c r="D27" t="s">
+      <c r="F27" t="s">
         <v>154</v>
       </c>
-      <c r="E27" t="s">
+      <c r="G27" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>155</v>
       </c>
-      <c r="F27" t="s">
+      <c r="B28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" t="s">
+        <v>158</v>
+      </c>
+      <c r="E28" t="s">
+        <v>159</v>
+      </c>
+      <c r="F28" t="s">
         <v>19</v>
       </c>
-      <c r="G27" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>157</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="G28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" t="s">
+        <v>161</v>
+      </c>
+      <c r="D29" t="s">
         <v>158</v>
       </c>
-      <c r="C28" t="s">
-        <v>153</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="E29" t="s">
         <v>159</v>
-      </c>
-      <c r="E28" t="s">
-        <v>160</v>
-      </c>
-      <c r="F28" t="s">
-        <v>161</v>
-      </c>
-      <c r="G28" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>162</v>
-      </c>
-      <c r="B29" t="s">
-        <v>163</v>
-      </c>
-      <c r="C29" t="s">
-        <v>164</v>
-      </c>
-      <c r="D29" t="s">
-        <v>165</v>
-      </c>
-      <c r="E29" t="s">
-        <v>166</v>
       </c>
       <c r="F29" t="s">
         <v>19</v>
       </c>
       <c r="G29" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>162</v>
       </c>
       <c r="B30" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C30" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D30" t="s">
         <v>165</v>
@@ -3914,358 +3705,358 @@
         <v>166</v>
       </c>
       <c r="F30" t="s">
+        <v>167</v>
+      </c>
+      <c r="G30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>168</v>
+      </c>
+      <c r="B31" t="s">
+        <v>169</v>
+      </c>
+      <c r="C31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D31" t="s">
+        <v>170</v>
+      </c>
+      <c r="E31" t="s">
+        <v>171</v>
+      </c>
+      <c r="F31" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" t="s">
         <v>19</v>
       </c>
-      <c r="G30" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>169</v>
-      </c>
-      <c r="B31" t="s">
-        <v>170</v>
-      </c>
-      <c r="C31" t="s">
-        <v>171</v>
-      </c>
-      <c r="D31" t="s">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>172</v>
       </c>
-      <c r="E31" t="s">
+      <c r="B32" t="s">
         <v>173</v>
       </c>
-      <c r="F31" t="s">
+      <c r="C32" t="s">
+        <v>164</v>
+      </c>
+      <c r="D32" t="s">
         <v>174</v>
       </c>
-      <c r="G31" t="s">
+      <c r="E32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F32" t="s">
+        <v>176</v>
+      </c>
+      <c r="G32" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>178</v>
+      </c>
+      <c r="B33" t="s">
+        <v>179</v>
+      </c>
+      <c r="C33" t="s">
+        <v>164</v>
+      </c>
+      <c r="D33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E33" t="s">
+        <v>181</v>
+      </c>
+      <c r="F33" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>175</v>
-      </c>
-      <c r="B32" t="s">
-        <v>176</v>
-      </c>
-      <c r="C32" t="s">
-        <v>171</v>
-      </c>
-      <c r="D32" t="s">
-        <v>177</v>
-      </c>
-      <c r="E32" t="s">
-        <v>178</v>
-      </c>
-      <c r="F32" t="s">
-        <v>60</v>
-      </c>
-      <c r="G32" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>182</v>
+      </c>
+      <c r="B34" t="s">
+        <v>183</v>
+      </c>
+      <c r="C34" t="s">
+        <v>184</v>
+      </c>
+      <c r="D34" t="s">
+        <v>185</v>
+      </c>
+      <c r="E34" t="s">
+        <v>186</v>
+      </c>
+      <c r="F34" t="s">
+        <v>187</v>
+      </c>
+      <c r="G34" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>182</v>
+      </c>
+      <c r="B35" t="s">
+        <v>189</v>
+      </c>
+      <c r="C35" t="s">
+        <v>190</v>
+      </c>
+      <c r="D35" t="s">
+        <v>185</v>
+      </c>
+      <c r="E35" t="s">
+        <v>186</v>
+      </c>
+      <c r="F35" t="s">
+        <v>187</v>
+      </c>
+      <c r="G35" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>191</v>
+      </c>
+      <c r="B36" t="s">
+        <v>192</v>
+      </c>
+      <c r="C36" t="s">
+        <v>193</v>
+      </c>
+      <c r="D36" t="s">
+        <v>194</v>
+      </c>
+      <c r="E36" t="s">
+        <v>195</v>
+      </c>
+      <c r="F36" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>197</v>
+      </c>
+      <c r="B37" t="s">
+        <v>198</v>
+      </c>
+      <c r="C37" t="s">
+        <v>199</v>
+      </c>
+      <c r="D37" t="s">
+        <v>200</v>
+      </c>
+      <c r="E37" t="s">
+        <v>201</v>
+      </c>
+      <c r="F37" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>203</v>
+      </c>
+      <c r="B38" t="s">
+        <v>204</v>
+      </c>
+      <c r="C38" t="s">
+        <v>205</v>
+      </c>
+      <c r="D38" t="s">
+        <v>206</v>
+      </c>
+      <c r="E38" t="s">
+        <v>207</v>
+      </c>
+      <c r="F38" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>179</v>
-      </c>
-      <c r="B33" t="s">
-        <v>180</v>
-      </c>
-      <c r="C33" t="s">
-        <v>171</v>
-      </c>
-      <c r="D33" t="s">
-        <v>181</v>
-      </c>
-      <c r="E33" t="s">
-        <v>182</v>
-      </c>
-      <c r="F33" t="s">
-        <v>183</v>
-      </c>
-      <c r="G33" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>185</v>
-      </c>
-      <c r="B34" t="s">
-        <v>186</v>
-      </c>
-      <c r="C34" t="s">
-        <v>171</v>
-      </c>
-      <c r="D34" t="s">
-        <v>187</v>
-      </c>
-      <c r="E34" t="s">
-        <v>188</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
-      </c>
-      <c r="G34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>189</v>
-      </c>
-      <c r="B35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C35" t="s">
-        <v>191</v>
-      </c>
-      <c r="D35" t="s">
-        <v>192</v>
-      </c>
-      <c r="E35" t="s">
-        <v>193</v>
-      </c>
-      <c r="F35" t="s">
-        <v>194</v>
-      </c>
-      <c r="G35" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>189</v>
-      </c>
-      <c r="B36" t="s">
-        <v>196</v>
-      </c>
-      <c r="C36" t="s">
-        <v>197</v>
-      </c>
-      <c r="D36" t="s">
-        <v>192</v>
-      </c>
-      <c r="E36" t="s">
-        <v>193</v>
-      </c>
-      <c r="F36" t="s">
-        <v>194</v>
-      </c>
-      <c r="G36" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>198</v>
-      </c>
-      <c r="B37" t="s">
-        <v>199</v>
-      </c>
-      <c r="C37" t="s">
-        <v>200</v>
-      </c>
-      <c r="D37" t="s">
-        <v>201</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="G38" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>209</v>
+      </c>
+      <c r="B39" t="s">
+        <v>210</v>
+      </c>
+      <c r="C39" t="s">
+        <v>211</v>
+      </c>
+      <c r="D39" t="s">
+        <v>212</v>
+      </c>
+      <c r="E39" t="s">
+        <v>213</v>
+      </c>
+      <c r="F39" t="s">
+        <v>214</v>
+      </c>
+      <c r="G39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>215</v>
+      </c>
+      <c r="B40" t="s">
+        <v>216</v>
+      </c>
+      <c r="C40" t="s">
+        <v>217</v>
+      </c>
+      <c r="D40" t="s">
+        <v>218</v>
+      </c>
+      <c r="E40" t="s">
+        <v>219</v>
+      </c>
+      <c r="F40" t="s">
+        <v>220</v>
+      </c>
+      <c r="G40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>221</v>
+      </c>
+      <c r="B41" t="s">
+        <v>222</v>
+      </c>
+      <c r="C41" t="s">
+        <v>223</v>
+      </c>
+      <c r="D41" t="s">
+        <v>224</v>
+      </c>
+      <c r="E41" t="s">
+        <v>225</v>
+      </c>
+      <c r="F41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>227</v>
+      </c>
+      <c r="B42" t="s">
+        <v>228</v>
+      </c>
+      <c r="C42" t="s">
+        <v>229</v>
+      </c>
+      <c r="D42" t="s">
+        <v>230</v>
+      </c>
+      <c r="E42" t="s">
+        <v>231</v>
+      </c>
+      <c r="F42" t="s">
+        <v>137</v>
+      </c>
+      <c r="G42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>232</v>
+      </c>
+      <c r="B43" t="s">
+        <v>233</v>
+      </c>
+      <c r="C43" t="s">
+        <v>234</v>
+      </c>
+      <c r="D43" t="s">
+        <v>235</v>
+      </c>
+      <c r="E43" t="s">
+        <v>236</v>
+      </c>
+      <c r="F43" t="s">
+        <v>237</v>
+      </c>
+      <c r="G43" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>238</v>
+      </c>
+      <c r="B44" t="s">
+        <v>239</v>
+      </c>
+      <c r="C44" t="s">
+        <v>240</v>
+      </c>
+      <c r="D44" t="s">
+        <v>241</v>
+      </c>
+      <c r="E44" t="s">
+        <v>242</v>
+      </c>
+      <c r="F44" t="s">
+        <v>243</v>
+      </c>
+      <c r="G44" t="s">
         <v>202</v>
       </c>
-      <c r="F37" t="s">
-        <v>52</v>
-      </c>
-      <c r="G37" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>204</v>
-      </c>
-      <c r="B38" t="s">
-        <v>205</v>
-      </c>
-      <c r="C38" t="s">
-        <v>206</v>
-      </c>
-      <c r="D38" t="s">
-        <v>207</v>
-      </c>
-      <c r="E38" t="s">
-        <v>208</v>
-      </c>
-      <c r="F38" t="s">
-        <v>27</v>
-      </c>
-      <c r="G38" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>210</v>
-      </c>
-      <c r="B39" t="s">
-        <v>211</v>
-      </c>
-      <c r="C39" t="s">
-        <v>212</v>
-      </c>
-      <c r="D39" t="s">
-        <v>213</v>
-      </c>
-      <c r="E39" t="s">
-        <v>214</v>
-      </c>
-      <c r="F39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>216</v>
-      </c>
-      <c r="B40" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" t="s">
-        <v>218</v>
-      </c>
-      <c r="D40" t="s">
-        <v>219</v>
-      </c>
-      <c r="E40" t="s">
-        <v>220</v>
-      </c>
-      <c r="F40" t="s">
-        <v>221</v>
-      </c>
-      <c r="G40" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>222</v>
-      </c>
-      <c r="B41" t="s">
-        <v>223</v>
-      </c>
-      <c r="C41" t="s">
-        <v>224</v>
-      </c>
-      <c r="D41" t="s">
-        <v>225</v>
-      </c>
-      <c r="E41" t="s">
-        <v>226</v>
-      </c>
-      <c r="F41" t="s">
-        <v>227</v>
-      </c>
-      <c r="G41" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>228</v>
-      </c>
-      <c r="B42" t="s">
-        <v>229</v>
-      </c>
-      <c r="C42" t="s">
-        <v>230</v>
-      </c>
-      <c r="D42" t="s">
-        <v>231</v>
-      </c>
-      <c r="E42" t="s">
-        <v>232</v>
-      </c>
-      <c r="F42" t="s">
-        <v>19</v>
-      </c>
-      <c r="G42" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>234</v>
-      </c>
-      <c r="B43" t="s">
-        <v>235</v>
-      </c>
-      <c r="C43" t="s">
-        <v>236</v>
-      </c>
-      <c r="D43" t="s">
-        <v>237</v>
-      </c>
-      <c r="E43" t="s">
-        <v>238</v>
-      </c>
-      <c r="F43" t="s">
-        <v>144</v>
-      </c>
-      <c r="G43" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>239</v>
-      </c>
-      <c r="B44" t="s">
-        <v>240</v>
-      </c>
-      <c r="C44" t="s">
-        <v>241</v>
-      </c>
-      <c r="D44" t="s">
-        <v>242</v>
-      </c>
-      <c r="E44" t="s">
-        <v>243</v>
-      </c>
-      <c r="F44" t="s">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>244</v>
       </c>
-      <c r="G44" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="B45" t="s">
         <v>245</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>246</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>247</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>248</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>249</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>250</v>
       </c>
-      <c r="G45" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>251</v>
       </c>
@@ -4282,105 +4073,105 @@
         <v>255</v>
       </c>
       <c r="F46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" t="s">
         <v>256</v>
       </c>
-      <c r="G46" t="s">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="B47" t="s">
         <v>258</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>259</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>260</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>261</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
+        <v>27</v>
+      </c>
+      <c r="G47" t="s">
         <v>262</v>
       </c>
-      <c r="F47" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" t="s">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B48" t="s">
         <v>264</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>265</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>266</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>267</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>268</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>27</v>
       </c>
-      <c r="G48" t="s">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B49" t="s">
         <v>270</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>271</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>272</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>273</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
+        <v>177</v>
+      </c>
+      <c r="G49" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>274</v>
       </c>
-      <c r="F49" t="s">
+      <c r="B50" t="s">
         <v>275</v>
       </c>
-      <c r="G49" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="C50" t="s">
         <v>276</v>
       </c>
-      <c r="B50" t="s">
+      <c r="D50" t="s">
         <v>277</v>
       </c>
-      <c r="C50" t="s">
+      <c r="E50" t="s">
         <v>278</v>
       </c>
-      <c r="D50" t="s">
+      <c r="F50" t="s">
         <v>279</v>
       </c>
-      <c r="E50" t="s">
+      <c r="G50" t="s">
         <v>280</v>
       </c>
-      <c r="F50" t="s">
-        <v>184</v>
-      </c>
-      <c r="G50" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>281</v>
       </c>
@@ -4397,36 +4188,36 @@
         <v>285</v>
       </c>
       <c r="F51" t="s">
+        <v>226</v>
+      </c>
+      <c r="G51" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>286</v>
       </c>
-      <c r="G51" t="s">
+      <c r="B52" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="C52" t="s">
         <v>288</v>
       </c>
-      <c r="B52" t="s">
+      <c r="D52" t="s">
         <v>289</v>
       </c>
-      <c r="C52" t="s">
+      <c r="E52" t="s">
         <v>290</v>
       </c>
-      <c r="D52" t="s">
+      <c r="F52" t="s">
         <v>291</v>
       </c>
-      <c r="E52" t="s">
+      <c r="G52" t="s">
         <v>292</v>
       </c>
-      <c r="F52" t="s">
-        <v>233</v>
-      </c>
-      <c r="G52" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>293</v>
       </c>
@@ -4443,105 +4234,105 @@
         <v>297</v>
       </c>
       <c r="F53" t="s">
+        <v>27</v>
+      </c>
+      <c r="G53" t="s">
         <v>298</v>
       </c>
-      <c r="G53" t="s">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="B54" t="s">
         <v>300</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>301</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>302</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>303</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
+        <v>154</v>
+      </c>
+      <c r="G54" t="s">
         <v>304</v>
       </c>
-      <c r="F54" t="s">
-        <v>27</v>
-      </c>
-      <c r="G54" t="s">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="B55" t="s">
         <v>306</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>307</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>308</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>309</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>310</v>
       </c>
-      <c r="F55" t="s">
-        <v>161</v>
-      </c>
       <c r="G55" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="B56" t="s">
         <v>312</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>313</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>314</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>315</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>316</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>317</v>
       </c>
-      <c r="G56" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="B57" t="s">
         <v>318</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>319</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>320</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>321</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>322</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>323</v>
       </c>
-      <c r="G57" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>324</v>
       </c>
@@ -4561,79 +4352,79 @@
         <v>329</v>
       </c>
       <c r="G58" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="B59" t="s">
         <v>331</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>332</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>333</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>334</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>335</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>336</v>
       </c>
-      <c r="G59" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>330</v>
+      </c>
+      <c r="B60" t="s">
         <v>337</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>338</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
+        <v>333</v>
+      </c>
+      <c r="E60" t="s">
+        <v>334</v>
+      </c>
+      <c r="F60" t="s">
+        <v>335</v>
+      </c>
+      <c r="G60" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>339</v>
       </c>
-      <c r="D60" t="s">
+      <c r="B61" t="s">
         <v>340</v>
       </c>
-      <c r="E60" t="s">
+      <c r="C61" t="s">
         <v>341</v>
       </c>
-      <c r="F60" t="s">
+      <c r="D61" t="s">
         <v>342</v>
       </c>
-      <c r="G60" t="s">
+      <c r="E61" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>337</v>
-      </c>
-      <c r="B61" t="s">
+      <c r="F61" t="s">
         <v>344</v>
       </c>
-      <c r="C61" t="s">
+      <c r="G61" t="s">
         <v>345</v>
       </c>
-      <c r="D61" t="s">
-        <v>340</v>
-      </c>
-      <c r="E61" t="s">
-        <v>341</v>
-      </c>
-      <c r="F61" t="s">
-        <v>342</v>
-      </c>
-      <c r="G61" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>346</v>
       </c>
@@ -4653,33 +4444,33 @@
         <v>351</v>
       </c>
       <c r="G62" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="B63" t="s">
         <v>353</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>354</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>355</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>356</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>357</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>358</v>
       </c>
-      <c r="G63" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>359</v>
       </c>
@@ -4693,39 +4484,39 @@
         <v>362</v>
       </c>
       <c r="E64" t="s">
+        <v>219</v>
+      </c>
+      <c r="F64" t="s">
+        <v>220</v>
+      </c>
+      <c r="G64" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>363</v>
       </c>
-      <c r="F64" t="s">
+      <c r="B65" t="s">
         <v>364</v>
       </c>
-      <c r="G64" t="s">
+      <c r="C65" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="D65" t="s">
         <v>366</v>
       </c>
-      <c r="B65" t="s">
+      <c r="E65" t="s">
         <v>367</v>
       </c>
-      <c r="C65" t="s">
+      <c r="F65" t="s">
         <v>368</v>
       </c>
-      <c r="D65" t="s">
+      <c r="G65" t="s">
         <v>369</v>
       </c>
-      <c r="E65" t="s">
-        <v>226</v>
-      </c>
-      <c r="F65" t="s">
-        <v>227</v>
-      </c>
-      <c r="G65" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>370</v>
       </c>
@@ -4745,33 +4536,33 @@
         <v>375</v>
       </c>
       <c r="G66" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="B67" t="s">
         <v>377</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>378</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>379</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>380</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>381</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>382</v>
       </c>
-      <c r="G67" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>383</v>
       </c>
@@ -4779,145 +4570,145 @@
         <v>384</v>
       </c>
       <c r="C68" t="s">
+        <v>378</v>
+      </c>
+      <c r="D68" t="s">
         <v>385</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>386</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
+        <v>177</v>
+      </c>
+      <c r="G68" t="s">
         <v>387</v>
       </c>
-      <c r="F68" t="s">
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>388</v>
       </c>
-      <c r="G68" t="s">
+      <c r="B69" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="C69" t="s">
+        <v>378</v>
+      </c>
+      <c r="D69" t="s">
         <v>390</v>
       </c>
-      <c r="B69" t="s">
+      <c r="E69" t="s">
         <v>391</v>
       </c>
-      <c r="C69" t="s">
-        <v>385</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="F69" t="s">
+        <v>177</v>
+      </c>
+      <c r="G69" t="s">
         <v>392</v>
       </c>
-      <c r="E69" t="s">
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>393</v>
       </c>
-      <c r="F69" t="s">
-        <v>184</v>
-      </c>
-      <c r="G69" t="s">
+      <c r="B70" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="C70" t="s">
+        <v>378</v>
+      </c>
+      <c r="D70" t="s">
         <v>395</v>
       </c>
-      <c r="B70" t="s">
+      <c r="E70" t="s">
         <v>396</v>
       </c>
-      <c r="C70" t="s">
-        <v>385</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="F70" t="s">
+        <v>53</v>
+      </c>
+      <c r="G70" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>397</v>
       </c>
-      <c r="E70" t="s">
+      <c r="B71" t="s">
         <v>398</v>
       </c>
-      <c r="F70" t="s">
-        <v>184</v>
-      </c>
-      <c r="G70" t="s">
+      <c r="C71" t="s">
+        <v>378</v>
+      </c>
+      <c r="D71" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="E71" t="s">
         <v>400</v>
       </c>
-      <c r="B71" t="s">
+      <c r="F71" t="s">
         <v>401</v>
       </c>
-      <c r="C71" t="s">
-        <v>385</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="G71" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>402</v>
       </c>
-      <c r="E71" t="s">
+      <c r="B72" t="s">
         <v>403</v>
       </c>
-      <c r="F71" t="s">
-        <v>60</v>
-      </c>
-      <c r="G71" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="C72" t="s">
         <v>404</v>
       </c>
-      <c r="B72" t="s">
+      <c r="D72" t="s">
         <v>405</v>
       </c>
-      <c r="C72" t="s">
-        <v>385</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>406</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
+        <v>351</v>
+      </c>
+      <c r="G72" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>402</v>
+      </c>
+      <c r="B73" t="s">
         <v>407</v>
       </c>
-      <c r="F72" t="s">
+      <c r="C73" t="s">
         <v>408</v>
       </c>
-      <c r="G72" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>409</v>
-      </c>
-      <c r="B73" t="s">
-        <v>410</v>
-      </c>
-      <c r="C73" t="s">
-        <v>411</v>
-      </c>
       <c r="D73" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="E73" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F73" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G73" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>409</v>
       </c>
       <c r="B74" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C74" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D74" t="s">
         <v>412</v>
@@ -4926,266 +4717,266 @@
         <v>413</v>
       </c>
       <c r="F74" t="s">
-        <v>358</v>
+        <v>414</v>
       </c>
       <c r="G74" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>415</v>
+      </c>
+      <c r="B75" t="s">
         <v>416</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>417</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>418</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>419</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
+        <v>323</v>
+      </c>
+      <c r="G75" t="s">
         <v>420</v>
       </c>
-      <c r="F75" t="s">
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>421</v>
       </c>
-      <c r="G75" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="B76" t="s">
         <v>422</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>423</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>424</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>425</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
+        <v>53</v>
+      </c>
+      <c r="G76" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>426</v>
       </c>
-      <c r="F76" t="s">
-        <v>330</v>
-      </c>
-      <c r="G76" t="s">
+      <c r="B77" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="C77" t="s">
+        <v>423</v>
+      </c>
+      <c r="D77" t="s">
         <v>428</v>
       </c>
-      <c r="B77" t="s">
+      <c r="E77" t="s">
         <v>429</v>
       </c>
-      <c r="C77" t="s">
+      <c r="F77" t="s">
+        <v>53</v>
+      </c>
+      <c r="G77" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>430</v>
       </c>
-      <c r="D77" t="s">
+      <c r="B78" t="s">
         <v>431</v>
       </c>
-      <c r="E77" t="s">
+      <c r="C78" t="s">
         <v>432</v>
       </c>
-      <c r="F77" t="s">
+      <c r="D78" t="s">
+        <v>433</v>
+      </c>
+      <c r="E78" t="s">
+        <v>434</v>
+      </c>
+      <c r="F78" t="s">
+        <v>435</v>
+      </c>
+      <c r="G78" t="s">
         <v>60</v>
       </c>
-      <c r="G77" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>433</v>
-      </c>
-      <c r="B78" t="s">
-        <v>434</v>
-      </c>
-      <c r="C78" t="s">
-        <v>430</v>
-      </c>
-      <c r="D78" t="s">
-        <v>435</v>
-      </c>
-      <c r="E78" t="s">
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>436</v>
       </c>
-      <c r="F78" t="s">
-        <v>60</v>
-      </c>
-      <c r="G78" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="B79" t="s">
         <v>437</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>438</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>439</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>440</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>441</v>
       </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>442</v>
       </c>
-      <c r="G79" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="B80" t="s">
         <v>443</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>444</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>445</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>446</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>447</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>442</v>
+      </c>
+      <c r="B81" t="s">
         <v>448</v>
       </c>
-      <c r="G80" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="C81" t="s">
         <v>449</v>
       </c>
-      <c r="B81" t="s">
+      <c r="D81" t="s">
+        <v>445</v>
+      </c>
+      <c r="E81" t="s">
+        <v>446</v>
+      </c>
+      <c r="F81" t="s">
+        <v>447</v>
+      </c>
+      <c r="G81" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>450</v>
       </c>
-      <c r="C81" t="s">
+      <c r="B82" t="s">
         <v>451</v>
       </c>
-      <c r="D81" t="s">
+      <c r="C82" t="s">
         <v>452</v>
       </c>
-      <c r="E81" t="s">
+      <c r="D82" t="s">
         <v>453</v>
       </c>
-      <c r="F81" t="s">
+      <c r="E82" t="s">
         <v>454</v>
       </c>
-      <c r="G81" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>449</v>
-      </c>
-      <c r="B82" t="s">
+      <c r="F82" t="s">
+        <v>243</v>
+      </c>
+      <c r="G82" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>455</v>
       </c>
-      <c r="C82" t="s">
+      <c r="B83" t="s">
         <v>456</v>
       </c>
-      <c r="D82" t="s">
-        <v>452</v>
-      </c>
-      <c r="E82" t="s">
-        <v>453</v>
-      </c>
-      <c r="F82" t="s">
-        <v>454</v>
-      </c>
-      <c r="G82" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="C83" t="s">
         <v>457</v>
       </c>
-      <c r="B83" t="s">
+      <c r="D83" t="s">
         <v>458</v>
       </c>
-      <c r="C83" t="s">
+      <c r="E83" t="s">
         <v>459</v>
       </c>
-      <c r="D83" t="s">
+      <c r="F83" t="s">
+        <v>137</v>
+      </c>
+      <c r="G83" t="s">
         <v>460</v>
       </c>
-      <c r="E83" t="s">
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>455</v>
+      </c>
+      <c r="B84" t="s">
         <v>461</v>
       </c>
-      <c r="F83" t="s">
-        <v>250</v>
-      </c>
-      <c r="G83" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="C84" t="s">
         <v>462</v>
       </c>
-      <c r="B84" t="s">
+      <c r="D84" t="s">
+        <v>458</v>
+      </c>
+      <c r="E84" t="s">
+        <v>459</v>
+      </c>
+      <c r="F84" t="s">
+        <v>137</v>
+      </c>
+      <c r="G84" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>463</v>
       </c>
-      <c r="C84" t="s">
+      <c r="B85" t="s">
         <v>464</v>
       </c>
-      <c r="D84" t="s">
+      <c r="C85" t="s">
         <v>465</v>
       </c>
-      <c r="E84" t="s">
+      <c r="D85" t="s">
         <v>466</v>
       </c>
-      <c r="F84" t="s">
-        <v>144</v>
-      </c>
-      <c r="G84" t="s">
+      <c r="E85" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>462</v>
-      </c>
-      <c r="B85" t="s">
+      <c r="F85" t="s">
         <v>468</v>
       </c>
-      <c r="C85" t="s">
+      <c r="G85" t="s">
         <v>469</v>
       </c>
-      <c r="D85" t="s">
-        <v>465</v>
-      </c>
-      <c r="E85" t="s">
-        <v>466</v>
-      </c>
-      <c r="F85" t="s">
-        <v>144</v>
-      </c>
-      <c r="G85" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>470</v>
       </c>
@@ -5208,130 +4999,130 @@
         <v>476</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
+        <v>470</v>
+      </c>
+      <c r="B87" t="s">
         <v>477</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>478</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
+        <v>473</v>
+      </c>
+      <c r="E87" t="s">
+        <v>474</v>
+      </c>
+      <c r="F87" t="s">
+        <v>475</v>
+      </c>
+      <c r="G87" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>470</v>
+      </c>
+      <c r="B88" t="s">
         <v>479</v>
       </c>
-      <c r="D87" t="s">
+      <c r="C88" t="s">
         <v>480</v>
       </c>
-      <c r="E87" t="s">
+      <c r="D88" t="s">
+        <v>473</v>
+      </c>
+      <c r="E88" t="s">
+        <v>474</v>
+      </c>
+      <c r="F88" t="s">
+        <v>475</v>
+      </c>
+      <c r="G88" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>481</v>
       </c>
-      <c r="F87" t="s">
+      <c r="B89" t="s">
         <v>482</v>
       </c>
-      <c r="G87" t="s">
+      <c r="C89" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>477</v>
-      </c>
-      <c r="B88" t="s">
+      <c r="D89" t="s">
         <v>484</v>
       </c>
-      <c r="C88" t="s">
+      <c r="E89" t="s">
         <v>485</v>
       </c>
-      <c r="D88" t="s">
-        <v>480</v>
-      </c>
-      <c r="E88" t="s">
-        <v>481</v>
-      </c>
-      <c r="F88" t="s">
-        <v>482</v>
-      </c>
-      <c r="G88" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>477</v>
-      </c>
-      <c r="B89" t="s">
+      <c r="F89" t="s">
+        <v>187</v>
+      </c>
+      <c r="G89" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>486</v>
       </c>
-      <c r="C89" t="s">
+      <c r="B90" t="s">
         <v>487</v>
       </c>
-      <c r="D89" t="s">
-        <v>480</v>
-      </c>
-      <c r="E89" t="s">
-        <v>481</v>
-      </c>
-      <c r="F89" t="s">
-        <v>482</v>
-      </c>
-      <c r="G89" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="C90" t="s">
         <v>488</v>
       </c>
-      <c r="B90" t="s">
+      <c r="D90" t="s">
         <v>489</v>
       </c>
-      <c r="C90" t="s">
+      <c r="E90" t="s">
         <v>490</v>
       </c>
-      <c r="D90" t="s">
+      <c r="F90" t="s">
+        <v>137</v>
+      </c>
+      <c r="G90" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>486</v>
+      </c>
+      <c r="B91" t="s">
         <v>491</v>
       </c>
-      <c r="E90" t="s">
+      <c r="C91" t="s">
         <v>492</v>
       </c>
-      <c r="F90" t="s">
-        <v>194</v>
-      </c>
-      <c r="G90" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>493</v>
-      </c>
-      <c r="B91" t="s">
-        <v>494</v>
-      </c>
-      <c r="C91" t="s">
-        <v>495</v>
-      </c>
       <c r="D91" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="E91" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="F91" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G91" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>493</v>
       </c>
       <c r="B92" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C92" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D92" t="s">
         <v>496</v>
@@ -5340,90 +5131,90 @@
         <v>497</v>
       </c>
       <c r="F92" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="G92" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
+        <v>498</v>
+      </c>
+      <c r="B93" t="s">
+        <v>499</v>
+      </c>
+      <c r="C93" t="s">
         <v>500</v>
       </c>
-      <c r="B93" t="s">
+      <c r="D93" t="s">
         <v>501</v>
       </c>
-      <c r="C93" t="s">
+      <c r="E93" t="s">
         <v>502</v>
       </c>
-      <c r="D93" t="s">
+      <c r="F93" t="s">
         <v>503</v>
       </c>
-      <c r="E93" t="s">
+      <c r="G93" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>504</v>
       </c>
-      <c r="F93" t="s">
-        <v>112</v>
-      </c>
-      <c r="G93" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="B94" t="s">
         <v>505</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>506</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>507</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>508</v>
       </c>
-      <c r="E94" t="s">
-        <v>509</v>
-      </c>
       <c r="F94" t="s">
-        <v>510</v>
+        <v>60</v>
       </c>
       <c r="G94" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B95" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C95" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D95" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="E95" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="F95" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G95" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>511</v>
       </c>
       <c r="B96" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C96" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D96" t="s">
         <v>514</v>
@@ -5432,128 +5223,128 @@
         <v>515</v>
       </c>
       <c r="F96" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G96" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
+        <v>511</v>
+      </c>
+      <c r="B97" t="s">
+        <v>517</v>
+      </c>
+      <c r="C97" t="s">
         <v>518</v>
       </c>
-      <c r="B97" t="s">
+      <c r="D97" t="s">
+        <v>514</v>
+      </c>
+      <c r="E97" t="s">
+        <v>515</v>
+      </c>
+      <c r="F97" t="s">
+        <v>60</v>
+      </c>
+      <c r="G97" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>519</v>
       </c>
-      <c r="C97" t="s">
+      <c r="B98" t="s">
         <v>520</v>
       </c>
-      <c r="D97" t="s">
+      <c r="C98" t="s">
         <v>521</v>
       </c>
-      <c r="E97" t="s">
+      <c r="D98" t="s">
         <v>522</v>
       </c>
-      <c r="F97" t="s">
-        <v>67</v>
-      </c>
-      <c r="G97" t="s">
+      <c r="E98" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>518</v>
-      </c>
-      <c r="B98" t="s">
+      <c r="F98" t="s">
+        <v>86</v>
+      </c>
+      <c r="G98" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>524</v>
       </c>
-      <c r="C98" t="s">
+      <c r="B99" t="s">
         <v>525</v>
       </c>
-      <c r="D98" t="s">
-        <v>521</v>
-      </c>
-      <c r="E98" t="s">
-        <v>522</v>
-      </c>
-      <c r="F98" t="s">
-        <v>67</v>
-      </c>
-      <c r="G98" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="C99" t="s">
         <v>526</v>
       </c>
-      <c r="B99" t="s">
+      <c r="D99" t="s">
         <v>527</v>
       </c>
-      <c r="C99" t="s">
+      <c r="E99" t="s">
         <v>528</v>
       </c>
-      <c r="D99" t="s">
+      <c r="F99" t="s">
+        <v>208</v>
+      </c>
+      <c r="G99" t="s">
         <v>529</v>
       </c>
-      <c r="E99" t="s">
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>530</v>
       </c>
-      <c r="F99" t="s">
-        <v>93</v>
-      </c>
-      <c r="G99" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="B100" t="s">
         <v>531</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>532</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>533</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>534</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
         <v>535</v>
       </c>
-      <c r="F100" t="s">
-        <v>215</v>
-      </c>
       <c r="G100" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="B101" t="s">
         <v>537</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
         <v>538</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>539</v>
       </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
         <v>540</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
         <v>541</v>
       </c>
-      <c r="F101" t="s">
+      <c r="G101" t="s">
         <v>542</v>
       </c>
-      <c r="G101" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>543</v>
       </c>
@@ -5573,33 +5364,33 @@
         <v>548</v>
       </c>
       <c r="G102" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="B103" t="s">
         <v>550</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>551</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>552</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
         <v>553</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103" t="s">
         <v>554</v>
       </c>
-      <c r="F103" t="s">
+      <c r="G103" t="s">
         <v>555</v>
       </c>
-      <c r="G103" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>556</v>
       </c>
@@ -5616,151 +5407,151 @@
         <v>560</v>
       </c>
       <c r="F104" t="s">
+        <v>554</v>
+      </c>
+      <c r="G104" t="s">
         <v>561</v>
       </c>
-      <c r="G104" t="s">
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="B105" t="s">
         <v>563</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>564</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>565</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>566</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
         <v>567</v>
       </c>
-      <c r="F105" t="s">
-        <v>561</v>
-      </c>
       <c r="G105" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="B106" t="s">
         <v>569</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
         <v>570</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>571</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>572</v>
       </c>
-      <c r="E106" t="s">
+      <c r="F106" t="s">
         <v>573</v>
       </c>
-      <c r="F106" t="s">
+      <c r="G106" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
         <v>574</v>
       </c>
-      <c r="G106" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="B107" t="s">
         <v>575</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
+        <v>570</v>
+      </c>
+      <c r="D107" t="s">
         <v>576</v>
       </c>
-      <c r="C107" t="s">
+      <c r="E107" t="s">
         <v>577</v>
       </c>
-      <c r="D107" t="s">
+      <c r="F107" t="s">
+        <v>27</v>
+      </c>
+      <c r="G107" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>578</v>
       </c>
-      <c r="E107" t="s">
+      <c r="B108" t="s">
         <v>579</v>
       </c>
-      <c r="F107" t="s">
+      <c r="C108" t="s">
         <v>580</v>
       </c>
-      <c r="G107" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="D108" t="s">
         <v>581</v>
       </c>
-      <c r="B108" t="s">
+      <c r="E108" t="s">
         <v>582</v>
       </c>
-      <c r="C108" t="s">
-        <v>577</v>
-      </c>
-      <c r="D108" t="s">
+      <c r="F108" t="s">
         <v>583</v>
       </c>
-      <c r="E108" t="s">
+      <c r="G108" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>584</v>
       </c>
-      <c r="F108" t="s">
-        <v>27</v>
-      </c>
-      <c r="G108" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="B109" t="s">
         <v>585</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>586</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>587</v>
       </c>
-      <c r="D109" t="s">
+      <c r="E109" t="s">
         <v>588</v>
       </c>
-      <c r="E109" t="s">
+      <c r="F109" t="s">
         <v>589</v>
       </c>
-      <c r="F109" t="s">
+      <c r="G109" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
         <v>590</v>
       </c>
-      <c r="G109" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="B110" t="s">
         <v>591</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>592</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>593</v>
       </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>594</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" t="s">
         <v>595</v>
       </c>
-      <c r="F110" t="s">
+      <c r="G110" t="s">
         <v>596</v>
       </c>
-      <c r="G110" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>597</v>
       </c>
@@ -5774,85 +5565,85 @@
         <v>600</v>
       </c>
       <c r="E111" t="s">
+        <v>572</v>
+      </c>
+      <c r="F111" t="s">
+        <v>573</v>
+      </c>
+      <c r="G111" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>597</v>
+      </c>
+      <c r="B112" t="s">
         <v>601</v>
       </c>
-      <c r="F111" t="s">
+      <c r="C112" t="s">
         <v>602</v>
       </c>
-      <c r="G111" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>604</v>
-      </c>
-      <c r="B112" t="s">
-        <v>605</v>
-      </c>
-      <c r="C112" t="s">
-        <v>606</v>
-      </c>
       <c r="D112" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="E112" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="F112" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="G112" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
+        <v>603</v>
+      </c>
+      <c r="B113" t="s">
         <v>604</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
+        <v>605</v>
+      </c>
+      <c r="D113" t="s">
+        <v>606</v>
+      </c>
+      <c r="E113" t="s">
+        <v>607</v>
+      </c>
+      <c r="F113" t="s">
+        <v>60</v>
+      </c>
+      <c r="G113" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
         <v>608</v>
       </c>
-      <c r="C113" t="s">
+      <c r="B114" t="s">
         <v>609</v>
       </c>
-      <c r="D113" t="s">
-        <v>607</v>
-      </c>
-      <c r="E113" t="s">
-        <v>579</v>
-      </c>
-      <c r="F113" t="s">
-        <v>580</v>
-      </c>
-      <c r="G113" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="C114" t="s">
         <v>610</v>
       </c>
-      <c r="B114" t="s">
+      <c r="D114" t="s">
         <v>611</v>
       </c>
-      <c r="C114" t="s">
+      <c r="E114" t="s">
         <v>612</v>
       </c>
-      <c r="D114" t="s">
+      <c r="F114" t="s">
         <v>613</v>
       </c>
-      <c r="E114" t="s">
+      <c r="G114" t="s">
         <v>614</v>
       </c>
-      <c r="F114" t="s">
-        <v>67</v>
-      </c>
-      <c r="G114" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>615</v>
       </c>
@@ -5866,85 +5657,85 @@
         <v>618</v>
       </c>
       <c r="E115" t="s">
+        <v>572</v>
+      </c>
+      <c r="F115" t="s">
+        <v>573</v>
+      </c>
+      <c r="G115" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
         <v>619</v>
       </c>
-      <c r="F115" t="s">
+      <c r="B116" t="s">
         <v>620</v>
       </c>
-      <c r="G115" t="s">
+      <c r="C116" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="D116" t="s">
         <v>622</v>
       </c>
-      <c r="B116" t="s">
+      <c r="E116" t="s">
         <v>623</v>
       </c>
-      <c r="C116" t="s">
+      <c r="F116" t="s">
         <v>624</v>
-      </c>
-      <c r="D116" t="s">
-        <v>625</v>
-      </c>
-      <c r="E116" t="s">
-        <v>579</v>
-      </c>
-      <c r="F116" t="s">
-        <v>580</v>
       </c>
       <c r="G116" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
+        <v>625</v>
+      </c>
+      <c r="B117" t="s">
         <v>626</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
         <v>627</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>628</v>
       </c>
-      <c r="D117" t="s">
+      <c r="E117" t="s">
         <v>629</v>
       </c>
-      <c r="E117" t="s">
+      <c r="F117" t="s">
+        <v>573</v>
+      </c>
+      <c r="G117" t="s">
         <v>630</v>
       </c>
-      <c r="F117" t="s">
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
         <v>631</v>
       </c>
-      <c r="G117" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="B118" t="s">
         <v>632</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
         <v>633</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>634</v>
       </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
         <v>635</v>
       </c>
-      <c r="E118" t="s">
+      <c r="F118" t="s">
         <v>636</v>
-      </c>
-      <c r="F118" t="s">
-        <v>580</v>
       </c>
       <c r="G118" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>638</v>
       </c>
@@ -5958,62 +5749,62 @@
         <v>641</v>
       </c>
       <c r="E119" t="s">
+        <v>201</v>
+      </c>
+      <c r="F119" t="s">
+        <v>27</v>
+      </c>
+      <c r="G119" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
         <v>642</v>
       </c>
-      <c r="F119" t="s">
+      <c r="B120" t="s">
         <v>643</v>
       </c>
-      <c r="G119" t="s">
+      <c r="C120" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="D120" t="s">
         <v>645</v>
       </c>
-      <c r="B120" t="s">
+      <c r="E120" t="s">
         <v>646</v>
       </c>
-      <c r="C120" t="s">
+      <c r="F120" t="s">
+        <v>53</v>
+      </c>
+      <c r="G120" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
         <v>647</v>
       </c>
-      <c r="D120" t="s">
+      <c r="B121" t="s">
         <v>648</v>
       </c>
-      <c r="E120" t="s">
-        <v>208</v>
-      </c>
-      <c r="F120" t="s">
-        <v>27</v>
-      </c>
-      <c r="G120" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="C121" t="s">
         <v>649</v>
       </c>
-      <c r="B121" t="s">
+      <c r="D121" t="s">
         <v>650</v>
       </c>
-      <c r="C121" t="s">
+      <c r="E121" t="s">
         <v>651</v>
       </c>
-      <c r="D121" t="s">
+      <c r="F121" t="s">
         <v>652</v>
       </c>
-      <c r="E121" t="s">
+      <c r="G121" t="s">
         <v>653</v>
       </c>
-      <c r="F121" t="s">
-        <v>60</v>
-      </c>
-      <c r="G121" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>654</v>
       </c>
@@ -6036,7 +5827,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>661</v>
       </c>
@@ -6053,289 +5844,289 @@
         <v>665</v>
       </c>
       <c r="F123" t="s">
+        <v>202</v>
+      </c>
+      <c r="G123" t="s">
         <v>666</v>
       </c>
-      <c r="G123" t="s">
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="B124" t="s">
         <v>668</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
         <v>669</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>670</v>
       </c>
-      <c r="D124" t="s">
+      <c r="E124" t="s">
         <v>671</v>
       </c>
-      <c r="E124" t="s">
+      <c r="F124" t="s">
+        <v>27</v>
+      </c>
+      <c r="G124" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
         <v>672</v>
       </c>
-      <c r="F124" t="s">
-        <v>209</v>
-      </c>
-      <c r="G124" t="s">
+      <c r="B125" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="C125" t="s">
         <v>674</v>
       </c>
-      <c r="B125" t="s">
+      <c r="D125" t="s">
         <v>675</v>
       </c>
-      <c r="C125" t="s">
+      <c r="E125" t="s">
         <v>676</v>
       </c>
-      <c r="D125" t="s">
+      <c r="F125" t="s">
+        <v>220</v>
+      </c>
+      <c r="G125" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
         <v>677</v>
       </c>
-      <c r="E125" t="s">
+      <c r="B126" t="s">
         <v>678</v>
       </c>
-      <c r="F125" t="s">
+      <c r="C126" t="s">
+        <v>679</v>
+      </c>
+      <c r="D126" t="s">
+        <v>680</v>
+      </c>
+      <c r="E126" t="s">
+        <v>681</v>
+      </c>
+      <c r="F126" t="s">
+        <v>220</v>
+      </c>
+      <c r="G126" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>683</v>
+      </c>
+      <c r="B127" t="s">
+        <v>684</v>
+      </c>
+      <c r="C127" t="s">
+        <v>685</v>
+      </c>
+      <c r="D127" t="s">
+        <v>686</v>
+      </c>
+      <c r="E127" t="s">
+        <v>687</v>
+      </c>
+      <c r="F127" t="s">
+        <v>688</v>
+      </c>
+      <c r="G127" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>689</v>
+      </c>
+      <c r="B128" t="s">
+        <v>690</v>
+      </c>
+      <c r="C128" t="s">
+        <v>691</v>
+      </c>
+      <c r="D128" t="s">
+        <v>692</v>
+      </c>
+      <c r="E128" t="s">
+        <v>693</v>
+      </c>
+      <c r="F128" t="s">
+        <v>694</v>
+      </c>
+      <c r="G128" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>695</v>
+      </c>
+      <c r="B129" t="s">
+        <v>696</v>
+      </c>
+      <c r="C129" t="s">
+        <v>697</v>
+      </c>
+      <c r="D129" t="s">
+        <v>698</v>
+      </c>
+      <c r="E129" t="s">
+        <v>699</v>
+      </c>
+      <c r="F129" t="s">
+        <v>700</v>
+      </c>
+      <c r="G129" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>701</v>
+      </c>
+      <c r="B130" t="s">
+        <v>702</v>
+      </c>
+      <c r="C130" t="s">
+        <v>703</v>
+      </c>
+      <c r="D130" t="s">
+        <v>704</v>
+      </c>
+      <c r="E130" t="s">
+        <v>705</v>
+      </c>
+      <c r="F130" t="s">
+        <v>59</v>
+      </c>
+      <c r="G130" t="s">
         <v>27</v>
       </c>
-      <c r="G125" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>679</v>
-      </c>
-      <c r="B126" t="s">
-        <v>680</v>
-      </c>
-      <c r="C126" t="s">
-        <v>681</v>
-      </c>
-      <c r="D126" t="s">
-        <v>682</v>
-      </c>
-      <c r="E126" t="s">
-        <v>683</v>
-      </c>
-      <c r="F126" t="s">
-        <v>227</v>
-      </c>
-      <c r="G126" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>684</v>
-      </c>
-      <c r="B127" t="s">
-        <v>685</v>
-      </c>
-      <c r="C127" t="s">
-        <v>686</v>
-      </c>
-      <c r="D127" t="s">
-        <v>687</v>
-      </c>
-      <c r="E127" t="s">
-        <v>688</v>
-      </c>
-      <c r="F127" t="s">
-        <v>227</v>
-      </c>
-      <c r="G127" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>690</v>
-      </c>
-      <c r="B128" t="s">
-        <v>691</v>
-      </c>
-      <c r="C128" t="s">
-        <v>692</v>
-      </c>
-      <c r="D128" t="s">
-        <v>693</v>
-      </c>
-      <c r="E128" t="s">
-        <v>694</v>
-      </c>
-      <c r="F128" t="s">
-        <v>695</v>
-      </c>
-      <c r="G128" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>696</v>
-      </c>
-      <c r="B129" t="s">
-        <v>697</v>
-      </c>
-      <c r="C129" t="s">
-        <v>698</v>
-      </c>
-      <c r="D129" t="s">
-        <v>699</v>
-      </c>
-      <c r="E129" t="s">
-        <v>700</v>
-      </c>
-      <c r="F129" t="s">
-        <v>701</v>
-      </c>
-      <c r="G129" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>702</v>
-      </c>
-      <c r="B130" t="s">
-        <v>703</v>
-      </c>
-      <c r="C130" t="s">
-        <v>704</v>
-      </c>
-      <c r="D130" t="s">
-        <v>705</v>
-      </c>
-      <c r="E130" t="s">
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
         <v>706</v>
       </c>
-      <c r="F130" t="s">
+      <c r="B131" t="s">
         <v>707</v>
       </c>
-      <c r="G130" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="C131" t="s">
         <v>708</v>
       </c>
-      <c r="B131" t="s">
+      <c r="D131" t="s">
         <v>709</v>
       </c>
-      <c r="C131" t="s">
+      <c r="E131" t="s">
         <v>710</v>
       </c>
-      <c r="D131" t="s">
+      <c r="F131" t="s">
+        <v>573</v>
+      </c>
+      <c r="G131" t="s">
         <v>711</v>
       </c>
-      <c r="E131" t="s">
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
         <v>712</v>
       </c>
-      <c r="F131" t="s">
-        <v>66</v>
-      </c>
-      <c r="G131" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="B132" t="s">
         <v>713</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
         <v>714</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
         <v>715</v>
       </c>
-      <c r="D132" t="s">
+      <c r="E132" t="s">
         <v>716</v>
       </c>
-      <c r="E132" t="s">
+      <c r="F132" t="s">
         <v>717</v>
-      </c>
-      <c r="F132" t="s">
-        <v>580</v>
       </c>
       <c r="G132" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
+        <v>712</v>
+      </c>
+      <c r="B133" t="s">
         <v>719</v>
       </c>
-      <c r="B133" t="s">
+      <c r="C133" t="s">
         <v>720</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
+        <v>715</v>
+      </c>
+      <c r="E133" t="s">
+        <v>716</v>
+      </c>
+      <c r="F133" t="s">
+        <v>717</v>
+      </c>
+      <c r="G133" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
         <v>721</v>
       </c>
-      <c r="D133" t="s">
+      <c r="B134" t="s">
         <v>722</v>
       </c>
-      <c r="E133" t="s">
+      <c r="C134" t="s">
         <v>723</v>
       </c>
-      <c r="F133" t="s">
+      <c r="D134" t="s">
         <v>724</v>
       </c>
-      <c r="G133" t="s">
+      <c r="E134" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>719</v>
-      </c>
-      <c r="B134" t="s">
+      <c r="F134" t="s">
+        <v>503</v>
+      </c>
+      <c r="G134" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
         <v>726</v>
       </c>
-      <c r="C134" t="s">
+      <c r="B135" t="s">
         <v>727</v>
       </c>
-      <c r="D134" t="s">
-        <v>722</v>
-      </c>
-      <c r="E134" t="s">
-        <v>723</v>
-      </c>
-      <c r="F134" t="s">
-        <v>724</v>
-      </c>
-      <c r="G134" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="C135" t="s">
         <v>728</v>
       </c>
-      <c r="B135" t="s">
+      <c r="D135" t="s">
         <v>729</v>
       </c>
-      <c r="C135" t="s">
+      <c r="E135" t="s">
         <v>730</v>
       </c>
-      <c r="D135" t="s">
+      <c r="F135" t="s">
         <v>731</v>
       </c>
-      <c r="E135" t="s">
+      <c r="G135" t="s">
         <v>732</v>
       </c>
-      <c r="F135" t="s">
-        <v>510</v>
-      </c>
-      <c r="G135" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>733</v>
       </c>
@@ -6352,313 +6143,152 @@
         <v>737</v>
       </c>
       <c r="F136" t="s">
+        <v>208</v>
+      </c>
+      <c r="G136" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
         <v>738</v>
       </c>
-      <c r="G136" t="s">
+      <c r="B137" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="C137" t="s">
         <v>740</v>
       </c>
-      <c r="B137" t="s">
+      <c r="D137" t="s">
         <v>741</v>
       </c>
-      <c r="C137" t="s">
+      <c r="E137" t="s">
         <v>742</v>
       </c>
-      <c r="D137" t="s">
+      <c r="F137" t="s">
+        <v>573</v>
+      </c>
+      <c r="G137" t="s">
         <v>743</v>
       </c>
-      <c r="E137" t="s">
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
         <v>744</v>
       </c>
-      <c r="F137" t="s">
+      <c r="B138" t="s">
         <v>745</v>
       </c>
-      <c r="G137" t="s">
+      <c r="C138" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="D138" t="s">
         <v>747</v>
       </c>
-      <c r="B138" t="s">
+      <c r="E138" t="s">
         <v>748</v>
       </c>
-      <c r="C138" t="s">
+      <c r="F138" t="s">
+        <v>19</v>
+      </c>
+      <c r="G138" t="s">
         <v>749</v>
       </c>
-      <c r="D138" t="s">
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
         <v>750</v>
       </c>
-      <c r="E138" t="s">
+      <c r="B139" t="s">
         <v>751</v>
       </c>
-      <c r="F138" t="s">
-        <v>215</v>
-      </c>
-      <c r="G138" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="C139" t="s">
         <v>752</v>
       </c>
-      <c r="B139" t="s">
+      <c r="D139" t="s">
         <v>753</v>
       </c>
-      <c r="C139" t="s">
+      <c r="E139" t="s">
+        <v>676</v>
+      </c>
+      <c r="F139" t="s">
+        <v>220</v>
+      </c>
+      <c r="G139" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
         <v>754</v>
       </c>
-      <c r="D139" t="s">
+      <c r="B140" t="s">
         <v>755</v>
       </c>
-      <c r="E139" t="s">
+      <c r="C140" t="s">
         <v>756</v>
       </c>
-      <c r="F139" t="s">
-        <v>580</v>
-      </c>
-      <c r="G139" t="s">
+      <c r="D140" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="E140" t="s">
         <v>758</v>
       </c>
-      <c r="B140" t="s">
+      <c r="F140" t="s">
+        <v>53</v>
+      </c>
+      <c r="G140" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
         <v>759</v>
       </c>
-      <c r="C140" t="s">
+      <c r="B141" t="s">
         <v>760</v>
       </c>
-      <c r="D140" t="s">
+      <c r="C141" t="s">
         <v>761</v>
       </c>
-      <c r="E140" t="s">
+      <c r="D141" t="s">
         <v>762</v>
       </c>
-      <c r="F140" t="s">
+      <c r="E141" t="s">
+        <v>763</v>
+      </c>
+      <c r="F141" t="s">
+        <v>208</v>
+      </c>
+      <c r="G141" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>765</v>
+      </c>
+      <c r="B142" t="s">
+        <v>766</v>
+      </c>
+      <c r="C142" t="s">
+        <v>767</v>
+      </c>
+      <c r="D142" t="s">
+        <v>768</v>
+      </c>
+      <c r="E142" t="s">
+        <v>769</v>
+      </c>
+      <c r="F142" t="s">
+        <v>770</v>
+      </c>
+      <c r="G142" t="s">
         <v>19</v>
-      </c>
-      <c r="G140" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>764</v>
-      </c>
-      <c r="B141" t="s">
-        <v>765</v>
-      </c>
-      <c r="C141" t="s">
-        <v>766</v>
-      </c>
-      <c r="D141" t="s">
-        <v>767</v>
-      </c>
-      <c r="E141" t="s">
-        <v>683</v>
-      </c>
-      <c r="F141" t="s">
-        <v>227</v>
-      </c>
-      <c r="G141" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>768</v>
-      </c>
-      <c r="B142" t="s">
-        <v>769</v>
-      </c>
-      <c r="C142" t="s">
-        <v>770</v>
-      </c>
-      <c r="D142" t="s">
-        <v>771</v>
-      </c>
-      <c r="E142" t="s">
-        <v>772</v>
-      </c>
-      <c r="F142" t="s">
-        <v>60</v>
-      </c>
-      <c r="G142" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>773</v>
-      </c>
-      <c r="B143" t="s">
-        <v>774</v>
-      </c>
-      <c r="C143" t="s">
-        <v>775</v>
-      </c>
-      <c r="D143" t="s">
-        <v>776</v>
-      </c>
-      <c r="E143" t="s">
-        <v>777</v>
-      </c>
-      <c r="F143" t="s">
-        <v>60</v>
-      </c>
-      <c r="G143" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>778</v>
-      </c>
-      <c r="B144" t="s">
-        <v>779</v>
-      </c>
-      <c r="C144" t="s">
-        <v>780</v>
-      </c>
-      <c r="D144" t="s">
-        <v>781</v>
-      </c>
-      <c r="E144" t="s">
-        <v>782</v>
-      </c>
-      <c r="F144" t="s">
-        <v>783</v>
-      </c>
-      <c r="G144" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>784</v>
-      </c>
-      <c r="B145" t="s">
-        <v>785</v>
-      </c>
-      <c r="C145" t="s">
-        <v>786</v>
-      </c>
-      <c r="D145" t="s">
-        <v>787</v>
-      </c>
-      <c r="E145" t="s">
-        <v>788</v>
-      </c>
-      <c r="F145" t="s">
-        <v>215</v>
-      </c>
-      <c r="G145" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>790</v>
-      </c>
-      <c r="B146" t="s">
-        <v>791</v>
-      </c>
-      <c r="C146" t="s">
-        <v>792</v>
-      </c>
-      <c r="D146" t="s">
-        <v>793</v>
-      </c>
-      <c r="E146" t="s">
-        <v>794</v>
-      </c>
-      <c r="F146" t="s">
-        <v>795</v>
-      </c>
-      <c r="G146" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>796</v>
-      </c>
-      <c r="B147" t="s">
-        <v>797</v>
-      </c>
-      <c r="C147" t="s">
-        <v>798</v>
-      </c>
-      <c r="D147" t="s">
-        <v>799</v>
-      </c>
-      <c r="E147" t="s">
-        <v>800</v>
-      </c>
-      <c r="F147" t="s">
-        <v>801</v>
-      </c>
-      <c r="G147" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>803</v>
-      </c>
-      <c r="B148" t="s">
-        <v>804</v>
-      </c>
-      <c r="C148" t="s">
-        <v>805</v>
-      </c>
-      <c r="D148" t="s">
-        <v>806</v>
-      </c>
-      <c r="E148" t="s">
-        <v>807</v>
-      </c>
-      <c r="F148" t="s">
-        <v>808</v>
-      </c>
-      <c r="G148" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>810</v>
-      </c>
-      <c r="B149" t="s">
-        <v>811</v>
-      </c>
-      <c r="C149" t="s">
-        <v>812</v>
-      </c>
-      <c r="D149" t="s">
-        <v>813</v>
-      </c>
-      <c r="E149" t="s">
-        <v>814</v>
-      </c>
-      <c r="F149" t="s">
-        <v>815</v>
-      </c>
-      <c r="G149" t="s">
-        <v>816</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>